--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_003.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_003.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295024EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell spray (Mark I, II)</t>
-  </si>
-  <si>
-    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295003AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Load shedding</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Cooldown effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295016AA1.01) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RPS </t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295018AA1.07) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295005AK2.12) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
+    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
+  </si>
+  <si>
+    <t>(295037EK2.22) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) RHR/LPCI system</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA1.01) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Respirator air pack</t>
+  </si>
+  <si>
+    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
+  </si>
+  <si>
+    <t>(295038EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Control room ventilation system isolation</t>
+  </si>
+  <si>
+    <t>(295030EK2.03) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295006AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor pressure response</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(600000AK2.10) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295031EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure coolant injection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295014AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(295029EK2.08) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Drywell/suppression chamber ventilation</t>
-  </si>
-  <si>
-    <t>(500000EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Primary containment oxygen instrumentation</t>
-  </si>
-  <si>
-    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
-  </si>
-  <si>
-    <t>(295007AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
-  </si>
-  <si>
-    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
-  </si>
-  <si>
-    <t>(205000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Recirculation system</t>
-  </si>
-  <si>
-    <t>(212000K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(262001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System frequency</t>
-  </si>
-  <si>
-    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
-  </si>
-  <si>
-    <t>(217000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment isolation system</t>
-  </si>
-  <si>
-    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
-  </si>
-  <si>
-    <t>(261000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(264000K4.08) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic startup</t>
-  </si>
-  <si>
-    <t>(259002A2.02) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of reactor feedwater flow inputs</t>
-  </si>
-  <si>
-    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
-  </si>
-  <si>
-    <t>(218000K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
-  </si>
-  <si>
-    <t>(209001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray flow</t>
-  </si>
-  <si>
-    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(223002K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Traversing in-core probe system</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(215005K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM detector operation</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
-  </si>
-  <si>
-    <t>(400000K4.06) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System protection due to reactor coolant system in‑leakage</t>
-  </si>
-  <si>
-    <t>(209002A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(205000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(202001K4.02) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate recirculation pump NPSH</t>
-  </si>
-  <si>
-    <t>(204000A2.05) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position</t>
-  </si>
-  <si>
-    <t>(226001K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(201001K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Control rod drive mechanisms</t>
-  </si>
-  <si>
-    <t>(259001A3.07) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) FWRV position</t>
-  </si>
-  <si>
-    <t>(239003A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Dilution air flow</t>
-  </si>
-  <si>
-    <t>(290003K2.02) (SF9 CRV) CONTROL ROOM VENTILATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Chiller units</t>
-  </si>
-  <si>
-    <t>(272000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Stack gas</t>
-  </si>
-  <si>
-    <t>(290001A4.01) Ability to manually operate and/or monitor the (SF5 SC) SECONDARY CONTAINMENT in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor building differential pressure</t>
-  </si>
-  <si>
-    <t>(245000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator cooling</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA1.05) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Neutron monitoring system</t>
+  </si>
+  <si>
+    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295031EK2.17) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA1.04) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(295007AK2.05) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295002AA1.03) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(500000EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
+  </si>
+  <si>
+    <t>(211000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
+  </si>
+  <si>
+    <t>(205000K4.02) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) High pressure isolation</t>
+  </si>
+  <si>
+    <t>(215004K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
+  </si>
+  <si>
+    <t>(263000A3.03) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Transfers</t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(262001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) DC power</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
+  </si>
+  <si>
+    <t>(400000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(209002K4.07) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override of reactor water level interlock</t>
+  </si>
+  <si>
+    <t>(223002K3.16) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Shutdown cooling system/RHR</t>
+  </si>
+  <si>
+    <t>(259002A2.06) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of controller signal output</t>
+  </si>
+  <si>
+    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(261000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Reactor protection system</t>
+  </si>
+  <si>
+    <t>(215005K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Effects of voids on LPRM indication</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291005K1.07) MOTORS AND GENERATORS (CFR: 41.7) Electrical units: volts, amps, VARs, watts and hertz</t>
+  </si>
+  <si>
+    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(211000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant air systems</t>
+  </si>
+  <si>
+    <t>(205000K4.04) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump NPSH</t>
+  </si>
+  <si>
+    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
+  </si>
+  <si>
+    <t>(290001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) Auxiliary building area temperatures (BWR 6)</t>
+  </si>
+  <si>
+    <t>(204000A4.01) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System pumps</t>
+  </si>
+  <si>
+    <t>(234000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(510001K4.05) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290002A2.01) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA </t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
+  </si>
+  <si>
+    <t>(272000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(202001K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.5 / 45.3) Reactor moderator temperature</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
-  </si>
-  <si>
-    <t>(293007K1.10) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define core thermal power</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295010AA2.03) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(262001A2.05) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Bus grounds /faults</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(217000A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC power loss</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.10) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223001A2.03) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Safety/relief valve leaking or stuck-open</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292008K1.25) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (REACTOR RESPONSE ON A SCRAM) Explain the shape of a curve of reactor power versus time after a SCRAM</t>
+  </si>
+  <si>
+    <t>(292006K1.14) FISSION PRODUCT POISONS (CFR: 41.1) Explain the process and reasons for the reactor operator to compensate for the time dependent behavior of xenon-135 concentration in the reactor</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293006K1.12) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define pump shutoff head, pump runout, and axial thrust</t>
+  </si>
+  <si>
+    <t>(293009K1.06) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Define LHGR</t>
+  </si>
+  <si>
+    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262001A2.02) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.20) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Surveillance acceptance criteria not being met</t>
+  </si>
+  <si>
+    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(241000A2.10) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of stator water cooling</t>
+  </si>
+  <si>
+    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>K5</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295026</t>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
   </si>
   <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295029</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295002</t>
   </si>
   <si>
     <t>500000</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>400000</t>
   </si>
   <si>
     <t>209002</t>
   </si>
   <si>
-    <t>205000</t>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>217000</t>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262002</t>
   </si>
   <si>
     <t>510000</t>
   </si>
   <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239001</t>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
   <si>
     <t>202001</t>
   </si>
   <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
     <t>239003</t>
   </si>
   <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
     <t>290003</t>
   </si>
   <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>286000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
         <v>106</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
         <v>106</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
@@ -1667,7 +1667,7 @@
         <v>3.6</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1684,7 +1684,7 @@
         <v>4.1</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.1</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D56" t="s">
         <v>106</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D58" t="s">
         <v>107</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2041,7 +2041,7 @@
         <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
